--- a/Selenium/Bugs/data/genre/OST.xlsx
+++ b/Selenium/Bugs/data/genre/OST.xlsx
@@ -190,7 +190,7 @@
     <t>Open a New Window (Lansbury and All)</t>
   </si>
   <si>
-    <t>Havin' Myself a Time</t>
+    <t xml:space="preserve">Havin' Myself a Time </t>
   </si>
   <si>
     <t>Birmingham (Remastered LP Version)</t>
@@ -934,7 +934,7 @@
     <t>애상(哀想)</t>
   </si>
   <si>
-    <t>단 한번의 사랑</t>
+    <t xml:space="preserve">단 한번의 사랑 </t>
   </si>
   <si>
     <t>여자가 사랑할 때</t>
@@ -1321,7 +1321,7 @@
     <t>넌 내게 반했어</t>
   </si>
   <si>
-    <t>찾았다</t>
+    <t xml:space="preserve">찾았다 </t>
   </si>
   <si>
     <t>Dream High</t>
